--- a/annales/2014/Excel_annale_2014.xlsx
+++ b/annales/2014/Excel_annale_2014.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E9535E5-6EE7-4675-8580-B5101CAB5ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAC1842-08E2-4C0F-9A39-4B256BFCAC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22008" yWindow="-504" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-3024" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotisations annuelles FFTDA" sheetId="1" r:id="rId1"/>
@@ -817,8 +817,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,9 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2257,9 +2255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2498,9 +2494,9 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C17" s="31" t="s">
@@ -2549,50 +2545,50 @@
       <c r="D22" s="23">
         <v>2</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="43"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="1">
         <f>Tables!$H$6</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="43"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="1">
         <f xml:space="preserve"> Tables!$H$7</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="43"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="1">
         <f xml:space="preserve"> Tables!$H$8</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="J25" s="43"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="1">
         <f xml:space="preserve"> Tables!$H$5</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="43"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="1">
         <f xml:space="preserve"> Tables!$H$4</f>
         <v>0</v>
